--- a/biology/Botanique/Indah_Kiat/Indah_Kiat.xlsx
+++ b/biology/Botanique/Indah_Kiat/Indah_Kiat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 PT Indah Kiat Pulp &amp; Paper Corporation (IKPP) est une entreprise indonésienne fondée en 1976 avec une première usine à Tangerang, dans la province de Banten, à l'ouest de Jakarta.
@@ -516,9 +528,11 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'ONG indonésienne Walhi, qui lutte pour la protection de l'environnement, l'usine de Perawang aurait en 2004 reçu livraison de bois coupé illégalement, en provenance du parc national de Tesso Nilo[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ONG indonésienne Walhi, qui lutte pour la protection de l'environnement, l'usine de Perawang aurait en 2004 reçu livraison de bois coupé illégalement, en provenance du parc national de Tesso Nilo.
 </t>
         </is>
       </c>
